--- a/LOIS 12th Feb.xlsx
+++ b/LOIS 12th Feb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saksham.sawhney\Desktop\dashbrd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{428F5109-48D2-4914-81E2-369C9C512001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C02C5AE3-1714-4A27-AFE2-540051E9688C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-420" yWindow="21480" windowWidth="38640" windowHeight="21120" xr2:uid="{9976E95A-4CD7-45F1-AC9B-BCE8E12DFD01}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>Date</t>
   </si>
@@ -137,32 +137,15 @@
   <si>
     <t>Spot</t>
   </si>
-  <si>
-    <t>20/02/26</t>
-  </si>
-  <si>
-    <t>16/02/26</t>
-  </si>
-  <si>
-    <t>13/02/26</t>
-  </si>
-  <si>
-    <t>17/02/26</t>
-  </si>
-  <si>
-    <t>18/02/26</t>
-  </si>
-  <si>
-    <t>19/02/26</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="m/d/yyyy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -209,11 +192,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -552,7 +536,7 @@
   <dimension ref="A1:S1303"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -609,16 +593,16 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>32</v>
+      <c r="A2" s="4">
+        <v>46073</v>
       </c>
       <c r="O2">
         <v>9.3000000000000007</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>37</v>
+      <c r="A3" s="4">
+        <v>46072</v>
       </c>
       <c r="B3" s="3">
         <v>11.499999999999499</v>
@@ -649,8 +633,8 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>36</v>
+      <c r="A4" s="4">
+        <v>46071</v>
       </c>
       <c r="B4" s="3">
         <v>11.2500000000011</v>
@@ -682,8 +666,8 @@
       <c r="S4" s="1"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>35</v>
+      <c r="A5" s="4">
+        <v>46070</v>
       </c>
       <c r="B5" s="3">
         <v>11.7500000000007</v>
@@ -715,8 +699,8 @@
       <c r="S5" s="1"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>33</v>
+      <c r="A6" s="4">
+        <v>46069</v>
       </c>
       <c r="B6" s="3">
         <v>11.500000000000901</v>
@@ -748,8 +732,8 @@
       <c r="S6" s="1"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>34</v>
+      <c r="A7" s="4">
+        <v>46066</v>
       </c>
       <c r="B7" s="3">
         <v>11.7500000000007</v>
@@ -61838,7 +61822,7 @@
         <v>2.5070000000000001</v>
       </c>
       <c r="T258">
-        <f t="shared" ref="T258:T321" si="4">100-S258</f>
+        <f t="shared" ref="T258:T275" si="4">100-S258</f>
         <v>97.492999999999995</v>
       </c>
     </row>
